--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icosl-Icos.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icosl-Icos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7779683333333333</v>
+        <v>0.5778633333333333</v>
       </c>
       <c r="H2">
-        <v>2.333905</v>
+        <v>1.73359</v>
       </c>
       <c r="I2">
-        <v>0.03257389909260203</v>
+        <v>0.01822222003587956</v>
       </c>
       <c r="J2">
-        <v>0.03376044640127995</v>
+        <v>0.01829736853065394</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.5283840000000001</v>
+        <v>0.009971333333333334</v>
       </c>
       <c r="N2">
-        <v>1.585152</v>
+        <v>0.029914</v>
       </c>
       <c r="O2">
-        <v>0.5619293065003848</v>
+        <v>0.01215464113355011</v>
       </c>
       <c r="P2">
-        <v>0.5956922614406104</v>
+        <v>0.01292516977409686</v>
       </c>
       <c r="Q2">
-        <v>0.41106601984</v>
+        <v>0.005762067917777777</v>
       </c>
       <c r="R2">
-        <v>3.69959417856</v>
+        <v>0.05185861126</v>
       </c>
       <c r="S2">
-        <v>0.01830422852711937</v>
+        <v>0.0002214845451927026</v>
       </c>
       <c r="T2">
-        <v>0.02011083666402297</v>
+        <v>0.0002364965946779193</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7779683333333333</v>
+        <v>0.5778633333333333</v>
       </c>
       <c r="H3">
-        <v>2.333905</v>
+        <v>1.73359</v>
       </c>
       <c r="I3">
-        <v>0.03257389909260203</v>
+        <v>0.01822222003587956</v>
       </c>
       <c r="J3">
-        <v>0.03376044640127995</v>
+        <v>0.01829736853065394</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.159885</v>
+        <v>0.4560523333333333</v>
       </c>
       <c r="N3">
-        <v>0.31977</v>
+        <v>1.368157</v>
       </c>
       <c r="O3">
-        <v>0.1700355559021734</v>
+        <v>0.5559088503494856</v>
       </c>
       <c r="P3">
-        <v>0.1201679803834988</v>
+        <v>0.5911500134592177</v>
       </c>
       <c r="Q3">
-        <v>0.124385466975</v>
+        <v>0.2635359215144444</v>
       </c>
       <c r="R3">
-        <v>0.7463128018499999</v>
+        <v>2.37182329363</v>
       </c>
       <c r="S3">
-        <v>0.005538721040111889</v>
+        <v>0.01012989339096117</v>
       </c>
       <c r="T3">
-        <v>0.004056924660887172</v>
+        <v>0.01081648965316434</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7779683333333333</v>
+        <v>0.5778633333333333</v>
       </c>
       <c r="H4">
-        <v>2.333905</v>
+        <v>1.73359</v>
       </c>
       <c r="I4">
-        <v>0.03257389909260203</v>
+        <v>0.01822222003587956</v>
       </c>
       <c r="J4">
-        <v>0.03376044640127995</v>
+        <v>0.01829736853065394</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2520343333333333</v>
+        <v>0.1467185</v>
       </c>
       <c r="N4">
-        <v>0.756103</v>
+        <v>0.293437</v>
       </c>
       <c r="O4">
-        <v>0.268035137597442</v>
+        <v>0.1788437569518725</v>
       </c>
       <c r="P4">
-        <v>0.2841397581758909</v>
+        <v>0.1267875591028168</v>
       </c>
       <c r="Q4">
-        <v>0.1960747302461111</v>
+        <v>0.08478324147166666</v>
       </c>
       <c r="R4">
-        <v>1.764672572215</v>
+        <v>0.50869944883</v>
       </c>
       <c r="S4">
-        <v>0.008730949525370776</v>
+        <v>0.003258930291220385</v>
       </c>
       <c r="T4">
-        <v>0.00959268507636981</v>
+        <v>0.002319878694006306</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9308339999999999</v>
+        <v>0.5778633333333333</v>
       </c>
       <c r="H5">
-        <v>2.792502</v>
+        <v>1.73359</v>
       </c>
       <c r="I5">
-        <v>0.03897445627130897</v>
+        <v>0.01822222003587956</v>
       </c>
       <c r="J5">
-        <v>0.04039415233116475</v>
+        <v>0.01829736853065394</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5283840000000001</v>
+        <v>0.2076303333333333</v>
       </c>
       <c r="N5">
-        <v>1.585152</v>
+        <v>0.622891</v>
       </c>
       <c r="O5">
-        <v>0.5619293065003848</v>
+        <v>0.2530927515650919</v>
       </c>
       <c r="P5">
-        <v>0.5956922614406104</v>
+        <v>0.2691372576638687</v>
       </c>
       <c r="Q5">
-        <v>0.4918377922560001</v>
+        <v>0.1199819565211111</v>
       </c>
       <c r="R5">
-        <v>4.426540130304</v>
+        <v>1.07983760869</v>
       </c>
       <c r="S5">
-        <v>0.02190088918376622</v>
+        <v>0.004611911808505305</v>
       </c>
       <c r="T5">
-        <v>0.02406248395112803</v>
+        <v>0.004924503588805371</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>2.792502</v>
       </c>
       <c r="I6">
-        <v>0.03897445627130897</v>
+        <v>0.02935272232455987</v>
       </c>
       <c r="J6">
-        <v>0.04039415233116475</v>
+        <v>0.02947377304702275</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.159885</v>
+        <v>0.009971333333333334</v>
       </c>
       <c r="N6">
-        <v>0.31977</v>
+        <v>0.029914</v>
       </c>
       <c r="O6">
-        <v>0.1700355559021734</v>
+        <v>0.01215464113355011</v>
       </c>
       <c r="P6">
-        <v>0.1201679803834988</v>
+        <v>0.01292516977409686</v>
       </c>
       <c r="Q6">
-        <v>0.14882639409</v>
+        <v>0.009281656092000001</v>
       </c>
       <c r="R6">
-        <v>0.8929583645399999</v>
+        <v>0.083534904828</v>
       </c>
       <c r="S6">
-        <v>0.00662704333807697</v>
+        <v>0.0003567718061477699</v>
       </c>
       <c r="T6">
-        <v>0.00485408370493947</v>
+        <v>0.0003809535205159692</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>2.792502</v>
       </c>
       <c r="I7">
-        <v>0.03897445627130897</v>
+        <v>0.02935272232455987</v>
       </c>
       <c r="J7">
-        <v>0.04039415233116475</v>
+        <v>0.02947377304702275</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2520343333333333</v>
+        <v>0.4560523333333333</v>
       </c>
       <c r="N7">
-        <v>0.756103</v>
+        <v>1.368157</v>
       </c>
       <c r="O7">
-        <v>0.268035137597442</v>
+        <v>0.5559088503494856</v>
       </c>
       <c r="P7">
-        <v>0.2841397581758909</v>
+        <v>0.5911500134592177</v>
       </c>
       <c r="Q7">
-        <v>0.234602126634</v>
+        <v>0.4245090176459999</v>
       </c>
       <c r="R7">
-        <v>2.111419139706</v>
+        <v>3.820581158814</v>
       </c>
       <c r="S7">
-        <v>0.01044652374946579</v>
+        <v>0.01631743812207376</v>
       </c>
       <c r="T7">
-        <v>0.01147758467509725</v>
+        <v>0.01742342133344143</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.921496</v>
+        <v>0.9308339999999999</v>
       </c>
       <c r="H8">
-        <v>35.764488</v>
+        <v>2.792502</v>
       </c>
       <c r="I8">
-        <v>0.4991586303686639</v>
+        <v>0.02935272232455987</v>
       </c>
       <c r="J8">
-        <v>0.5173411429313618</v>
+        <v>0.02947377304702275</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5283840000000001</v>
+        <v>0.1467185</v>
       </c>
       <c r="N8">
-        <v>1.585152</v>
+        <v>0.293437</v>
       </c>
       <c r="O8">
-        <v>0.5619293065003848</v>
+        <v>0.1788437569518725</v>
       </c>
       <c r="P8">
-        <v>0.5956922614406104</v>
+        <v>0.1267875591028168</v>
       </c>
       <c r="Q8">
-        <v>6.299127742464001</v>
+        <v>0.136570568229</v>
       </c>
       <c r="R8">
-        <v>56.692149682176</v>
+        <v>0.8194234093739999</v>
       </c>
       <c r="S8">
-        <v>0.2804918629967452</v>
+        <v>0.005249551137289387</v>
       </c>
       <c r="T8">
-        <v>0.308176115369053</v>
+        <v>0.003736907742182405</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.921496</v>
+        <v>0.9308339999999999</v>
       </c>
       <c r="H9">
-        <v>35.764488</v>
+        <v>2.792502</v>
       </c>
       <c r="I9">
-        <v>0.4991586303686639</v>
+        <v>0.02935272232455987</v>
       </c>
       <c r="J9">
-        <v>0.5173411429313618</v>
+        <v>0.02947377304702275</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.159885</v>
+        <v>0.2076303333333333</v>
       </c>
       <c r="N9">
-        <v>0.31977</v>
+        <v>0.622891</v>
       </c>
       <c r="O9">
-        <v>0.1700355559021734</v>
+        <v>0.2530927515650919</v>
       </c>
       <c r="P9">
-        <v>0.1201679803834988</v>
+        <v>0.2691372576638687</v>
       </c>
       <c r="Q9">
-        <v>1.90606838796</v>
+        <v>0.193269373698</v>
       </c>
       <c r="R9">
-        <v>11.43641032776</v>
+        <v>1.739424363282</v>
       </c>
       <c r="S9">
-        <v>0.08487471519810327</v>
+        <v>0.007428961259048957</v>
       </c>
       <c r="T9">
-        <v>0.06216784031535275</v>
+        <v>0.007932490450882951</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.921496</v>
+        <v>16.208374</v>
       </c>
       <c r="H10">
-        <v>35.764488</v>
+        <v>48.625122</v>
       </c>
       <c r="I10">
-        <v>0.4991586303686639</v>
+        <v>0.5111114348580046</v>
       </c>
       <c r="J10">
-        <v>0.5173411429313618</v>
+        <v>0.5132192600799546</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.2520343333333333</v>
+        <v>0.009971333333333334</v>
       </c>
       <c r="N10">
-        <v>0.756103</v>
+        <v>0.029914</v>
       </c>
       <c r="O10">
-        <v>0.268035137597442</v>
+        <v>0.01215464113355011</v>
       </c>
       <c r="P10">
-        <v>0.2841397581758909</v>
+        <v>0.01292516977409686</v>
       </c>
       <c r="Q10">
-        <v>3.004626296695999</v>
+        <v>0.1616190999453334</v>
       </c>
       <c r="R10">
-        <v>27.041636670264</v>
+        <v>1.454571899508</v>
       </c>
       <c r="S10">
-        <v>0.1337920521738155</v>
+        <v>0.006212376069952918</v>
       </c>
       <c r="T10">
-        <v>0.1469971872469562</v>
+        <v>0.006633446067869785</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,22 +1092,22 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.5182005</v>
+        <v>16.208374</v>
       </c>
       <c r="H11">
-        <v>5.036401</v>
+        <v>48.625122</v>
       </c>
       <c r="I11">
-        <v>0.1054382363231665</v>
+        <v>0.5111114348580046</v>
       </c>
       <c r="J11">
-        <v>0.07285264225229936</v>
+        <v>0.5132192600799546</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,33 +1116,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.5283840000000001</v>
+        <v>0.4560523333333333</v>
       </c>
       <c r="N11">
-        <v>1.585152</v>
+        <v>1.368157</v>
       </c>
       <c r="O11">
-        <v>0.5619293065003848</v>
+        <v>0.5559088503494856</v>
       </c>
       <c r="P11">
-        <v>0.5956922614406104</v>
+        <v>0.5911500134592177</v>
       </c>
       <c r="Q11">
-        <v>1.330576852992</v>
+        <v>7.391866782239334</v>
       </c>
       <c r="R11">
-        <v>7.983461117952</v>
+        <v>66.526801040154</v>
       </c>
       <c r="S11">
-        <v>0.05924883501570065</v>
+        <v>0.2841313701523893</v>
       </c>
       <c r="T11">
-        <v>0.04339775521519597</v>
+        <v>0.3033895725037949</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1154,57 +1154,57 @@
         <v>23</v>
       </c>
       <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>16.208374</v>
+      </c>
+      <c r="H12">
+        <v>48.625122</v>
+      </c>
+      <c r="I12">
+        <v>0.5111114348580046</v>
+      </c>
+      <c r="J12">
+        <v>0.5132192600799546</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>2.5182005</v>
-      </c>
-      <c r="H12">
-        <v>5.036401</v>
-      </c>
-      <c r="I12">
-        <v>0.1054382363231665</v>
-      </c>
-      <c r="J12">
-        <v>0.07285264225229936</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.159885</v>
+        <v>0.1467185</v>
       </c>
       <c r="N12">
-        <v>0.31977</v>
+        <v>0.293437</v>
       </c>
       <c r="O12">
-        <v>0.1700355559021734</v>
+        <v>0.1788437569518725</v>
       </c>
       <c r="P12">
-        <v>0.1201679803834988</v>
+        <v>0.1267875591028168</v>
       </c>
       <c r="Q12">
-        <v>0.4026224869425</v>
+        <v>2.378068320719001</v>
       </c>
       <c r="R12">
-        <v>1.61048994777</v>
+        <v>14.268409924314</v>
       </c>
       <c r="S12">
-        <v>0.01792824912655436</v>
+        <v>0.09140908923106777</v>
       </c>
       <c r="T12">
-        <v>0.008754554885060368</v>
+        <v>0.06506981727009113</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.5182005</v>
+        <v>16.208374</v>
       </c>
       <c r="H13">
-        <v>5.036401</v>
+        <v>48.625122</v>
       </c>
       <c r="I13">
-        <v>0.1054382363231665</v>
+        <v>0.5111114348580046</v>
       </c>
       <c r="J13">
-        <v>0.07285264225229936</v>
+        <v>0.5132192600799546</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2520343333333333</v>
+        <v>0.2076303333333333</v>
       </c>
       <c r="N13">
-        <v>0.756103</v>
+        <v>0.622891</v>
       </c>
       <c r="O13">
-        <v>0.268035137597442</v>
+        <v>0.2530927515650919</v>
       </c>
       <c r="P13">
-        <v>0.2841397581758909</v>
+        <v>0.2691372576638687</v>
       </c>
       <c r="Q13">
-        <v>0.6346729842171666</v>
+        <v>3.365350096411334</v>
       </c>
       <c r="R13">
-        <v>3.808037905303</v>
+        <v>30.288150867702</v>
       </c>
       <c r="S13">
-        <v>0.02826115218091155</v>
+        <v>0.1293585994045946</v>
       </c>
       <c r="T13">
-        <v>0.02070033215204303</v>
+        <v>0.1381264242381988</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.734682333333333</v>
+        <v>0.39073</v>
       </c>
       <c r="H14">
-        <v>23.204047</v>
+        <v>0.78146</v>
       </c>
       <c r="I14">
-        <v>0.3238547779442587</v>
+        <v>0.01232119711342224</v>
       </c>
       <c r="J14">
-        <v>0.3356516160838941</v>
+        <v>0.008248006513630573</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.5283840000000001</v>
+        <v>0.009971333333333334</v>
       </c>
       <c r="N14">
-        <v>1.585152</v>
+        <v>0.029914</v>
       </c>
       <c r="O14">
-        <v>0.5619293065003848</v>
+        <v>0.01215464113355011</v>
       </c>
       <c r="P14">
-        <v>0.5956922614406104</v>
+        <v>0.01292516977409686</v>
       </c>
       <c r="Q14">
-        <v>4.086882390016</v>
+        <v>0.003896099073333334</v>
       </c>
       <c r="R14">
-        <v>36.781941510144</v>
+        <v>0.02337659444</v>
       </c>
       <c r="S14">
-        <v>0.1819834907770534</v>
+        <v>0.0001497597292493808</v>
       </c>
       <c r="T14">
-        <v>0.1999450702412104</v>
+        <v>0.0001066068844865319</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.734682333333333</v>
+        <v>0.39073</v>
       </c>
       <c r="H15">
-        <v>23.204047</v>
+        <v>0.78146</v>
       </c>
       <c r="I15">
-        <v>0.3238547779442587</v>
+        <v>0.01232119711342224</v>
       </c>
       <c r="J15">
-        <v>0.3356516160838941</v>
+        <v>0.008248006513630573</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.159885</v>
+        <v>0.4560523333333333</v>
       </c>
       <c r="N15">
-        <v>0.31977</v>
+        <v>1.368157</v>
       </c>
       <c r="O15">
-        <v>0.1700355559021734</v>
+        <v>0.5559088503494856</v>
       </c>
       <c r="P15">
-        <v>0.1201679803834988</v>
+        <v>0.5911500134592177</v>
       </c>
       <c r="Q15">
-        <v>1.236659684865</v>
+        <v>0.1781933282033333</v>
       </c>
       <c r="R15">
-        <v>7.41995810919</v>
+        <v>1.06915996922</v>
       </c>
       <c r="S15">
-        <v>0.05506682719932696</v>
+        <v>0.006849462522251959</v>
       </c>
       <c r="T15">
-        <v>0.04033457681725907</v>
+        <v>0.004875809161544428</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,365 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.734682333333333</v>
+        <v>0.39073</v>
       </c>
       <c r="H16">
-        <v>23.204047</v>
+        <v>0.78146</v>
       </c>
       <c r="I16">
-        <v>0.3238547779442587</v>
+        <v>0.01232119711342224</v>
       </c>
       <c r="J16">
-        <v>0.3356516160838941</v>
+        <v>0.008248006513630573</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2520343333333333</v>
+        <v>0.1467185</v>
       </c>
       <c r="N16">
-        <v>0.756103</v>
+        <v>0.293437</v>
       </c>
       <c r="O16">
-        <v>0.268035137597442</v>
+        <v>0.1788437569518725</v>
       </c>
       <c r="P16">
-        <v>0.2841397581758909</v>
+        <v>0.1267875591028168</v>
       </c>
       <c r="Q16">
-        <v>1.949405505426777</v>
+        <v>0.057327319505</v>
       </c>
       <c r="R16">
-        <v>17.544649548841</v>
+        <v>0.22930927802</v>
       </c>
       <c r="S16">
-        <v>0.08680445996787838</v>
+        <v>0.002203569181909</v>
       </c>
       <c r="T16">
-        <v>0.09537196902542464</v>
+        <v>0.001045744613327354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.39073</v>
+      </c>
+      <c r="H17">
+        <v>0.78146</v>
+      </c>
+      <c r="I17">
+        <v>0.01232119711342224</v>
+      </c>
+      <c r="J17">
+        <v>0.008248006513630573</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.2076303333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.622891</v>
+      </c>
+      <c r="O17">
+        <v>0.2530927515650919</v>
+      </c>
+      <c r="P17">
+        <v>0.2691372576638687</v>
+      </c>
+      <c r="Q17">
+        <v>0.08112740014333333</v>
+      </c>
+      <c r="R17">
+        <v>0.48676440086</v>
+      </c>
+      <c r="S17">
+        <v>0.003118405680011903</v>
+      </c>
+      <c r="T17">
+        <v>0.002219845854272259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>13.60421466666667</v>
+      </c>
+      <c r="H18">
+        <v>40.81264400000001</v>
+      </c>
+      <c r="I18">
+        <v>0.4289924256681337</v>
+      </c>
+      <c r="J18">
+        <v>0.4307615918287382</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.009971333333333334</v>
+      </c>
+      <c r="N18">
+        <v>0.029914</v>
+      </c>
+      <c r="O18">
+        <v>0.01215464113355011</v>
+      </c>
+      <c r="P18">
+        <v>0.01292516977409686</v>
+      </c>
+      <c r="Q18">
+        <v>0.1356521591795556</v>
+      </c>
+      <c r="R18">
+        <v>1.220869432616</v>
+      </c>
+      <c r="S18">
+        <v>0.005214248983007335</v>
+      </c>
+      <c r="T18">
+        <v>0.005567666706546656</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>13.60421466666667</v>
+      </c>
+      <c r="H19">
+        <v>40.81264400000001</v>
+      </c>
+      <c r="I19">
+        <v>0.4289924256681337</v>
+      </c>
+      <c r="J19">
+        <v>0.4307615918287382</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.4560523333333333</v>
+      </c>
+      <c r="N19">
+        <v>1.368157</v>
+      </c>
+      <c r="O19">
+        <v>0.5559088503494856</v>
+      </c>
+      <c r="P19">
+        <v>0.5911500134592177</v>
+      </c>
+      <c r="Q19">
+        <v>6.20423384190089</v>
+      </c>
+      <c r="R19">
+        <v>55.838104577108</v>
+      </c>
+      <c r="S19">
+        <v>0.2384806861618094</v>
+      </c>
+      <c r="T19">
+        <v>0.2546447208072726</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>13.60421466666667</v>
+      </c>
+      <c r="H20">
+        <v>40.81264400000001</v>
+      </c>
+      <c r="I20">
+        <v>0.4289924256681337</v>
+      </c>
+      <c r="J20">
+        <v>0.4307615918287382</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1467185</v>
+      </c>
+      <c r="N20">
+        <v>0.293437</v>
+      </c>
+      <c r="O20">
+        <v>0.1788437569518725</v>
+      </c>
+      <c r="P20">
+        <v>0.1267875591028168</v>
+      </c>
+      <c r="Q20">
+        <v>1.995989969571334</v>
+      </c>
+      <c r="R20">
+        <v>11.975939817428</v>
+      </c>
+      <c r="S20">
+        <v>0.07672261711038593</v>
+      </c>
+      <c r="T20">
+        <v>0.05461521078320958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>13.60421466666667</v>
+      </c>
+      <c r="H21">
+        <v>40.81264400000001</v>
+      </c>
+      <c r="I21">
+        <v>0.4289924256681337</v>
+      </c>
+      <c r="J21">
+        <v>0.4307615918287382</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2076303333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.622891</v>
+      </c>
+      <c r="O21">
+        <v>0.2530927515650919</v>
+      </c>
+      <c r="P21">
+        <v>0.2691372576638687</v>
+      </c>
+      <c r="Q21">
+        <v>2.824647625978223</v>
+      </c>
+      <c r="R21">
+        <v>25.421828633804</v>
+      </c>
+      <c r="S21">
+        <v>0.1085748734129311</v>
+      </c>
+      <c r="T21">
+        <v>0.1159339935317093</v>
       </c>
     </row>
   </sheetData>
